--- a/www.eia.gov/forecasts/steo/xls/Probability_HH.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Probability_HH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Fs-f1\l6489\PRJ\Jan17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Fs-f1\l6489\PRJ\Feb17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Contract</t>
   </si>
@@ -69,13 +69,13 @@
     <t/>
   </si>
   <si>
-    <t>Average NYMEX Data for Dec 30 - Jan 5</t>
+    <t>Average NYMEX Data for Jan 27 - Feb 2</t>
   </si>
   <si>
-    <t>Source:  EIA Short-Term Energy Outlook, January 2017, and CME Group (http://www.cmegroup.com)</t>
+    <t>Source:  EIA Short-Term Energy Outlook, February 2017, and CME Group (http://www.cmegroup.com)</t>
   </si>
   <si>
-    <t>Notes: Probability values calculated using NYMEX market data for the five trading days ending January 5, 2017.</t>
+    <t>Notes: Probability values calculated using NYMEX market data for the five trading days ending February 2, 2017.</t>
   </si>
 </sst>
 </file>
@@ -291,11 +291,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="776130080"/>
-        <c:axId val="776130640"/>
+        <c:axId val="247219648"/>
+        <c:axId val="247220768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="776130080"/>
+        <c:axId val="247219648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -329,7 +329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="776130640"/>
+        <c:crossAx val="247220768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -338,7 +338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="776130640"/>
+        <c:axId val="247220768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -382,7 +382,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="776130080"/>
+        <c:crossAx val="247219648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -672,73 +672,73 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1276230120929818E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8778181103696958E-2</c:v>
+                  <c:v>4.5233662968451196E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4589081272947348E-2</c:v>
+                  <c:v>1.4586108472755297E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1095260931795797E-2</c:v>
+                  <c:v>3.4184698205371136E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0254522899426755E-2</c:v>
+                  <c:v>6.1837559568824592E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7335974391350837E-2</c:v>
+                  <c:v>8.5754266877160867E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6740041246816788E-2</c:v>
+                  <c:v>9.9665217297573536E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10599819864144135</c:v>
+                  <c:v>0.1086473301995638</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11905922854640281</c:v>
+                  <c:v>0.1210386479491681</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1401136338977077</c:v>
+                  <c:v>0.14137081331840362</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.17587060911172292</c:v>
+                  <c:v>0.17887483376030544</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.20738354942395526</c:v>
+                  <c:v>0.21066229349881221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.20896656488534696</c:v>
+                  <c:v>0.2130616353178208</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.19516257042111623</c:v>
+                  <c:v>0.18829926605021638</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9776845930202457E-2</c:v>
+                  <c:v>5.4211649700164281E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8887000593255658E-2</c:v>
+                  <c:v>4.4870022543934907E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3207059779371858E-2</c:v>
+                  <c:v>4.8660708964265567E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7968996435839274E-2</c:v>
+                  <c:v>5.3135948994008121E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.025401561414148E-2</c:v>
+                  <c:v>5.6142528903433353E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.1637398356130931E-2</c:v>
+                  <c:v>5.7740706804078244E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7269265918824544E-2</c:v>
+                  <c:v>6.2943482068183787E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.4978662096771167E-2</c:v>
+                  <c:v>7.2182722161562796E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.502874358162385E-2</c:v>
+                  <c:v>9.2736119049019725E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,73 +873,73 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10313473861963224</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16946665896102772</c:v>
+                  <c:v>1.4741450386961662E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14954495080124602</c:v>
+                  <c:v>7.8395280956051958E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15618242112039962</c:v>
+                  <c:v>0.12103969379395439</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18273264248899704</c:v>
+                  <c:v>0.16530444057813037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20489694064010538</c:v>
+                  <c:v>0.19720707470519</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21235181518153856</c:v>
+                  <c:v>0.21068782755589188</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2169377596962713</c:v>
+                  <c:v>0.21539070362219109</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23068723126789159</c:v>
+                  <c:v>0.22767661324585947</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25282772973769141</c:v>
+                  <c:v>0.25001811621049086</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.29367781373504215</c:v>
+                  <c:v>0.29351310295450939</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.32418238947125882</c:v>
+                  <c:v>0.32335428463652183</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.31527869668221353</c:v>
+                  <c:v>0.31668206512075125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29171114281757804</c:v>
+                  <c:v>0.28962405461797658</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.10878148418389666</c:v>
+                  <c:v>0.1153852699611119</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.0573572985746961E-2</c:v>
+                  <c:v>9.9797605714547225E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.7503747254978859E-2</c:v>
+                  <c:v>0.10564175642085219</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.10494193233963291</c:v>
+                  <c:v>0.11242411851410884</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.10734136777227808</c:v>
+                  <c:v>0.11587198828179678</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.10763839025827791</c:v>
+                  <c:v>0.11636346982749761</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.11558213268673292</c:v>
+                  <c:v>0.12341793801214425</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.12758023671443677</c:v>
+                  <c:v>0.13673499255127855</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.15901975473159405</c:v>
+                  <c:v>0.16877889181689429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1074,73 +1074,73 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45586254262765535</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43562720566137131</c:v>
+                  <c:v>0.18870328428090102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38644498290071416</c:v>
+                  <c:v>0.29169727366572651</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38102908318725581</c:v>
+                  <c:v>0.33368227894172875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39741761301936818</c:v>
+                  <c:v>0.37051736514836453</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41297778856360701</c:v>
+                  <c:v>0.39475393760663846</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40939833042698476</c:v>
+                  <c:v>0.39723514904671448</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39943232446528187</c:v>
+                  <c:v>0.38884253266453705</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.40740687613207438</c:v>
+                  <c:v>0.39487570747371231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.42228688572682904</c:v>
+                  <c:v>0.41245445750834808</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45930854339865496</c:v>
+                  <c:v>0.45370840458668144</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.48067103193491878</c:v>
+                  <c:v>0.473561617486634</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.45704786308759049</c:v>
+                  <c:v>0.45401666139526142</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.42221757908498991</c:v>
+                  <c:v>0.42830035771719255</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2225246070321007</c:v>
+                  <c:v>0.23055474483274216</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.19664011491417727</c:v>
+                  <c:v>0.2080294548044414</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20576486497943067</c:v>
+                  <c:v>0.21547600524763369</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.21536463900005187</c:v>
+                  <c:v>0.22404024517728408</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.21608301618171352</c:v>
+                  <c:v>0.22622963163043983</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.21271224267724839</c:v>
+                  <c:v>0.22308837910858434</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.22192643591708297</c:v>
+                  <c:v>0.23092199700983021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.23847529193981093</c:v>
+                  <c:v>0.24770320375003607</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.28263626531055031</c:v>
+                  <c:v>0.29284373536756236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1157,11 +1157,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="776134000"/>
-        <c:axId val="776134560"/>
+        <c:axId val="252568960"/>
+        <c:axId val="252569520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="776134000"/>
+        <c:axId val="252568960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1235,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="776134560"/>
+        <c:crossAx val="252569520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1246,7 +1246,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="776134560"/>
+        <c:axId val="252569520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1289,7 +1289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="776134000"/>
+        <c:crossAx val="252568960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1578,73 +1578,73 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1714166562315498E-6</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7173847746181412E-4</c:v>
+                  <c:v>2.7924980636750973E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1607062983929337E-3</c:v>
+                  <c:v>1.0101511793461082E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8810218639425687E-3</c:v>
+                  <c:v>3.7739706202327694E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.284185944511079E-3</c:v>
+                  <c:v>9.0940516543518424E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0363060335420338E-2</c:v>
+                  <c:v>1.4502333764988662E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5528533657197308E-2</c:v>
+                  <c:v>2.1829371115933194E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5175478139720209E-2</c:v>
+                  <c:v>3.316142615443074E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0663038639794471E-2</c:v>
+                  <c:v>4.0534161652214018E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8207538797998097E-2</c:v>
+                  <c:v>4.666723899949643E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.0588567480813409E-2</c:v>
+                  <c:v>4.7203237469499504E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8498071861101E-2</c:v>
+                  <c:v>5.744462181838339E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.2749320793414007E-2</c:v>
+                  <c:v>8.084735415572486E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.10032894532244552</c:v>
+                  <c:v>8.2908499198125596E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11443834694120625</c:v>
+                  <c:v>0.11575676964135007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.12043555151665075</c:v>
+                  <c:v>0.12424082024668859</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.12135846609641887</c:v>
+                  <c:v>0.12493980597327736</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.12205754795631762</c:v>
+                  <c:v>0.1253334536121069</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.13079780545310471</c:v>
+                  <c:v>0.13311853670324902</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.14550347915493034</c:v>
+                  <c:v>0.1475925042766898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.14839417927046306</c:v>
+                  <c:v>0.15061193899266234</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.14074229053084464</c:v>
+                  <c:v>0.14670745612089786</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.11513237151986122</c:v>
+                  <c:v>0.1171137712885022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1779,73 +1779,73 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0598394822858292E-4</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8346206474496629E-3</c:v>
+                  <c:v>3.3707570106344953E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4177765198974068E-2</c:v>
+                  <c:v>1.0115698746562707E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0765177483498487E-2</c:v>
+                  <c:v>2.1749305039617473E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0462670954628956E-2</c:v>
+                  <c:v>3.6316881982376481E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7550326445510152E-2</c:v>
+                  <c:v>4.7688635643671762E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9035771169113729E-2</c:v>
+                  <c:v>6.2033124120593253E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7921335139392358E-2</c:v>
+                  <c:v>8.2213316563834349E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6643071973725552E-2</c:v>
+                  <c:v>9.3212238811918313E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.7281797614143009E-2</c:v>
+                  <c:v>0.10056892075771573</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.7652819857540365E-2</c:v>
+                  <c:v>9.7472777462464855E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.6784071376340597E-2</c:v>
+                  <c:v>0.10919753677271538</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.12996707494782533</c:v>
+                  <c:v>0.13994896509567434</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.16626154418217209</c:v>
+                  <c:v>0.14546746664608146</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.21497693178343613</c:v>
+                  <c:v>0.21490260959440666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.22774518984004355</c:v>
+                  <c:v>0.22965597398821802</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.22677630148468708</c:v>
+                  <c:v>0.2288300558414752</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2254924869091155</c:v>
+                  <c:v>0.22744466358671023</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.23544745553435831</c:v>
+                  <c:v>0.23587248024892538</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.25273105464519929</c:v>
+                  <c:v>0.25265683301064246</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.25379574077454425</c:v>
+                  <c:v>0.25419171657389839</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.24176873068331139</c:v>
+                  <c:v>0.2463438241759226</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.20435870871581174</c:v>
+                  <c:v>0.20484241880056919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1980,73 +1980,73 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5987313556475877E-3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2944121179467989E-2</c:v>
+                  <c:v>8.6880818220155254E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4719053143062468E-2</c:v>
+                  <c:v>5.075975484392703E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9441800111497698E-2</c:v>
+                  <c:v>7.5646767546650118E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6104460550537443E-2</c:v>
+                  <c:v>9.8829938240515558E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6289755823406264E-2</c:v>
+                  <c:v>0.11384106464173238</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11407021344242085</c:v>
+                  <c:v>0.13370043083693417</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1411799631361963</c:v>
+                  <c:v>0.16072882423435209</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15112087754624071</c:v>
+                  <c:v>0.17294668672427116</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1617775578467191</c:v>
+                  <c:v>0.17859579628786215</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15677863738312392</c:v>
+                  <c:v>0.1687072755840453</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.16391018052962514</c:v>
+                  <c:v>0.17839708190504666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.20265259808992908</c:v>
+                  <c:v>0.21321040048357065</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2447288317282823</c:v>
+                  <c:v>0.22328425659799456</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.33762753714423954</c:v>
+                  <c:v>0.33523571391378859</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.35764576365773448</c:v>
+                  <c:v>0.35584525726790528</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.35384878417018051</c:v>
+                  <c:v>0.35279194351044818</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.34969943882446508</c:v>
+                  <c:v>0.34893910287462537</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.35875946197131925</c:v>
+                  <c:v>0.356111163350882</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3755998798927026</c:v>
+                  <c:v>0.3723489873914213</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.37372721292080768</c:v>
+                  <c:v>0.37138620143975931</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.35794634783370771</c:v>
+                  <c:v>0.35946945540400121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.31135123403119735</c:v>
+                  <c:v>0.30929013626346269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2063,11 +2063,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="776138480"/>
-        <c:axId val="776139040"/>
+        <c:axId val="252573440"/>
+        <c:axId val="252574000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="776138480"/>
+        <c:axId val="252573440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2141,7 +2141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="776139040"/>
+        <c:crossAx val="252574000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2152,7 +2152,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="776139040"/>
+        <c:axId val="252574000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -2195,7 +2195,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="776138480"/>
+        <c:crossAx val="252573440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2424,7 +2424,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Notes: Probability values calculated using NYMEX market data for the five trading days ending January 5, 2017.</a:t>
+            <a:t>Notes: Probability values calculated using NYMEX market data for the five trading days ending February 2, 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="800">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -2479,7 +2479,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Source:  EIA Short-Term Energy Outlook, January 2017, and CME Group (http://www.cmegroup.com)</a:t>
+            <a:t>Source:  EIA Short-Term Energy Outlook, February 2017, and CME Group (http://www.cmegroup.com)</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="800">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -3026,39 +3026,39 @@
       <c r="A6" s="9">
         <v>42767</v>
       </c>
-      <c r="B6" s="10">
-        <v>3.4786000000000001</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0.49133768</v>
-      </c>
-      <c r="D6" s="6">
-        <v>14</v>
-      </c>
-      <c r="E6" s="18">
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="18" t="e">
         <f t="shared" si="0"/>
-        <v>1.1276230120929818E-2</v>
-      </c>
-      <c r="F6" s="18">
-        <f t="shared" si="1"/>
-        <v>0.10313473861963224</v>
-      </c>
-      <c r="G6" s="18">
-        <f t="shared" si="1"/>
-        <v>0.45586254262765535</v>
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="H6" s="15"/>
-      <c r="I6" s="18">
+      <c r="I6" s="18" t="e">
         <f t="shared" si="2"/>
-        <v>2.5987313556475877E-3</v>
-      </c>
-      <c r="J6" s="18">
-        <f t="shared" si="3"/>
-        <v>1.0598394822858292E-4</v>
-      </c>
-      <c r="K6" s="18">
-        <f t="shared" si="3"/>
-        <v>1.1714166562315498E-6</v>
+        <v>#N/A</v>
+      </c>
+      <c r="J6" s="18" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K6" s="18" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3066,38 +3066,38 @@
         <v>42795</v>
       </c>
       <c r="B7" s="10">
-        <v>3.4544000000000006</v>
+        <v>3.2124000000000001</v>
       </c>
       <c r="C7" s="12">
-        <v>0.46461315999999997</v>
+        <v>0.43771365000000007</v>
       </c>
       <c r="D7" s="6">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E7" s="18">
         <f t="shared" si="0"/>
-        <v>4.8778181103696958E-2</v>
+        <v>4.5233662968451196E-4</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" si="1"/>
-        <v>0.16946665896102772</v>
+        <v>1.4741450386961662E-2</v>
       </c>
       <c r="G7" s="18">
         <f t="shared" si="1"/>
-        <v>0.43562720566137131</v>
+        <v>0.18870328428090102</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="18">
         <f t="shared" si="2"/>
-        <v>3.2944121179467989E-2</v>
+        <v>8.6880818220155254E-3</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" si="3"/>
-        <v>6.8346206474496629E-3</v>
+        <v>3.3707570106344953E-4</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" si="3"/>
-        <v>7.7173847746181412E-4</v>
+        <v>2.7924980636750973E-6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3105,38 +3105,38 @@
         <v>42826</v>
       </c>
       <c r="B8" s="10">
-        <v>3.3777999999999997</v>
+        <v>3.2549999999999999</v>
       </c>
       <c r="C8" s="12">
-        <v>0.37778945999999997</v>
+        <v>0.40170345000000002</v>
       </c>
       <c r="D8" s="6">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E8" s="18">
         <f t="shared" si="0"/>
-        <v>4.4589081272947348E-2</v>
+        <v>1.4586108472755297E-2</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" si="1"/>
-        <v>0.14954495080124602</v>
+        <v>7.8395280956051958E-2</v>
       </c>
       <c r="G8" s="18">
         <f t="shared" si="1"/>
-        <v>0.38644498290071416</v>
+        <v>0.29169727366572651</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="18">
         <f t="shared" si="2"/>
-        <v>5.4719053143062468E-2</v>
+        <v>5.075975484392703E-2</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" si="3"/>
-        <v>1.4177765198974068E-2</v>
+        <v>1.0115698746562707E-2</v>
       </c>
       <c r="K8" s="18">
         <f t="shared" si="3"/>
-        <v>2.1607062983929337E-3</v>
+        <v>1.0101511793461082E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3144,38 +3144,38 @@
         <v>42856</v>
       </c>
       <c r="B9" s="10">
-        <v>3.3649999999999998</v>
+        <v>3.2920000000000003</v>
       </c>
       <c r="C9" s="12">
-        <v>0.34596389333333333</v>
+        <v>0.38276832499999996</v>
       </c>
       <c r="D9" s="6">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" si="0"/>
-        <v>5.1095260931795797E-2</v>
+        <v>3.4184698205371136E-2</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" si="1"/>
-        <v>0.15618242112039962</v>
+        <v>0.12103969379395439</v>
       </c>
       <c r="G9" s="18">
         <f t="shared" si="1"/>
-        <v>0.38102908318725581</v>
+        <v>0.33368227894172875</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="18">
         <f t="shared" si="2"/>
-        <v>6.9441800111497698E-2</v>
+        <v>7.5646767546650118E-2</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" si="3"/>
-        <v>2.0765177483498487E-2</v>
+        <v>2.1749305039617473E-2</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" si="3"/>
-        <v>3.8810218639425687E-3</v>
+        <v>3.7739706202327694E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3183,38 +3183,38 @@
         <v>42887</v>
       </c>
       <c r="B10" s="10">
-        <v>3.3883999999999999</v>
+        <v>3.339</v>
       </c>
       <c r="C10" s="12">
-        <v>0.33370511000000003</v>
+        <v>0.37361782500000001</v>
       </c>
       <c r="D10" s="6">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" si="0"/>
-        <v>7.0254522899426755E-2</v>
+        <v>6.1837559568824592E-2</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" si="1"/>
-        <v>0.18273264248899704</v>
+        <v>0.16530444057813037</v>
       </c>
       <c r="G10" s="18">
         <f t="shared" si="1"/>
-        <v>0.39741761301936818</v>
+        <v>0.37051736514836453</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="18">
         <f t="shared" si="2"/>
-        <v>8.6104460550537443E-2</v>
+        <v>9.8829938240515558E-2</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" si="3"/>
-        <v>3.0462670954628956E-2</v>
+        <v>3.6316881982376481E-2</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" si="3"/>
-        <v>7.284185944511079E-3</v>
+        <v>9.0940516543518424E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3222,38 +3222,38 @@
         <v>42917</v>
       </c>
       <c r="B11" s="10">
-        <v>3.4164000000000003</v>
+        <v>3.38</v>
       </c>
       <c r="C11" s="12">
-        <v>0.32152222666666663</v>
+        <v>0.36254178214285709</v>
       </c>
       <c r="D11" s="6">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" si="0"/>
-        <v>8.7335974391350837E-2</v>
+        <v>8.5754266877160867E-2</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" si="1"/>
-        <v>0.20489694064010538</v>
+        <v>0.19720707470519</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" si="1"/>
-        <v>0.41297778856360701</v>
+        <v>0.39475393760663846</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="18">
         <f t="shared" si="2"/>
-        <v>9.6289755823406264E-2</v>
+        <v>0.11384106464173238</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="3"/>
-        <v>3.7550326445510152E-2</v>
+        <v>4.7688635643671762E-2</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="3"/>
-        <v>1.0363060335420338E-2</v>
+        <v>1.4502333764988662E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3261,38 +3261,38 @@
         <v>42948</v>
       </c>
       <c r="B12" s="10">
-        <v>3.4094000000000002</v>
+        <v>3.3835999999999999</v>
       </c>
       <c r="C12" s="12">
-        <v>0.31587515999999999</v>
+        <v>0.3560181</v>
       </c>
       <c r="D12" s="6">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" si="0"/>
-        <v>9.6740041246816788E-2</v>
+        <v>9.9665217297573536E-2</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" si="1"/>
-        <v>0.21235181518153856</v>
+        <v>0.21068782755589188</v>
       </c>
       <c r="G12" s="18">
         <f t="shared" si="1"/>
-        <v>0.40939833042698476</v>
+        <v>0.39723514904671448</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="18">
         <f t="shared" si="2"/>
-        <v>0.11407021344242085</v>
+        <v>0.13370043083693417</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" si="3"/>
-        <v>4.9035771169113729E-2</v>
+        <v>6.2033124120593253E-2</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" si="3"/>
-        <v>1.5528533657197308E-2</v>
+        <v>2.1829371115933194E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3300,38 +3300,38 @@
         <v>42979</v>
       </c>
       <c r="B13" s="10">
-        <v>3.3881999999999999</v>
+        <v>3.3637999999999999</v>
       </c>
       <c r="C13" s="12">
-        <v>0.31556542000000004</v>
+        <v>0.35065407500000001</v>
       </c>
       <c r="D13" s="6">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" si="0"/>
-        <v>0.10599819864144135</v>
+        <v>0.1086473301995638</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" si="1"/>
-        <v>0.2169377596962713</v>
+        <v>0.21539070362219109</v>
       </c>
       <c r="G13" s="18">
         <f t="shared" si="1"/>
-        <v>0.39943232446528187</v>
+        <v>0.38884253266453705</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="18">
         <f t="shared" si="2"/>
-        <v>0.1411799631361963</v>
+        <v>0.16072882423435209</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" si="3"/>
-        <v>6.7921335139392358E-2</v>
+        <v>8.2213316563834349E-2</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" si="3"/>
-        <v>2.5175478139720209E-2</v>
+        <v>3.316142615443074E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3339,38 +3339,38 @@
         <v>43009</v>
       </c>
       <c r="B14" s="10">
-        <v>3.407</v>
+        <v>3.3780000000000001</v>
       </c>
       <c r="C14" s="12">
-        <v>0.31277255999999998</v>
+        <v>0.34598004999999998</v>
       </c>
       <c r="D14" s="6">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" si="0"/>
-        <v>0.11905922854640281</v>
+        <v>0.1210386479491681</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" si="1"/>
-        <v>0.23068723126789159</v>
+        <v>0.22767661324585947</v>
       </c>
       <c r="G14" s="18">
         <f t="shared" si="1"/>
-        <v>0.40740687613207438</v>
+        <v>0.39487570747371231</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="18">
         <f t="shared" si="2"/>
-        <v>0.15112087754624071</v>
+        <v>0.17294668672427116</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" si="3"/>
-        <v>7.6643071973725552E-2</v>
+        <v>9.3212238811918313E-2</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" si="3"/>
-        <v>3.0663038639794471E-2</v>
+        <v>4.0534161652214018E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3378,38 +3378,38 @@
         <v>43040</v>
       </c>
       <c r="B15" s="10">
-        <v>3.4468000000000005</v>
+        <v>3.4246000000000003</v>
       </c>
       <c r="C15" s="12">
-        <v>0.31605820333333334</v>
+        <v>0.34388300714285713</v>
       </c>
       <c r="D15" s="6">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" si="0"/>
-        <v>0.1401136338977077</v>
+        <v>0.14137081331840362</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" si="1"/>
-        <v>0.25282772973769141</v>
+        <v>0.25001811621049086</v>
       </c>
       <c r="G15" s="18">
         <f t="shared" si="1"/>
-        <v>0.42228688572682904</v>
+        <v>0.41245445750834808</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="18">
         <f t="shared" si="2"/>
-        <v>0.1617775578467191</v>
+        <v>0.17859579628786215</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" si="3"/>
-        <v>8.7281797614143009E-2</v>
+        <v>0.10056892075771573</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" si="3"/>
-        <v>3.8207538797998097E-2</v>
+        <v>4.666723899949643E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3417,38 +3417,38 @@
         <v>43070</v>
       </c>
       <c r="B16" s="10">
-        <v>3.5528</v>
+        <v>3.5442</v>
       </c>
       <c r="C16" s="12">
-        <v>0.32081173333333335</v>
+        <v>0.34599647738095235</v>
       </c>
       <c r="D16" s="6">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" si="0"/>
-        <v>0.17587060911172292</v>
+        <v>0.17887483376030544</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" si="1"/>
-        <v>0.29367781373504215</v>
+        <v>0.29351310295450939</v>
       </c>
       <c r="G16" s="18">
         <f t="shared" si="1"/>
-        <v>0.45930854339865496</v>
+        <v>0.45370840458668144</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="18">
         <f t="shared" si="2"/>
-        <v>0.15677863738312392</v>
+        <v>0.1687072755840453</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" si="3"/>
-        <v>8.7652819857540365E-2</v>
+        <v>9.7472777462464855E-2</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" si="3"/>
-        <v>4.0588567480813409E-2</v>
+        <v>4.7203237469499504E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3456,38 +3456,38 @@
         <v>43101</v>
       </c>
       <c r="B17" s="10">
-        <v>3.6347999999999998</v>
+        <v>3.6261999999999999</v>
       </c>
       <c r="C17" s="12">
-        <v>0.3322792</v>
+        <v>0.35968435333333326</v>
       </c>
       <c r="D17" s="6">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" si="0"/>
-        <v>0.20738354942395526</v>
+        <v>0.21066229349881221</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" si="1"/>
-        <v>0.32418238947125882</v>
+        <v>0.32335428463652183</v>
       </c>
       <c r="G17" s="18">
         <f t="shared" si="1"/>
-        <v>0.48067103193491878</v>
+        <v>0.473561617486634</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="18">
         <f t="shared" si="2"/>
-        <v>0.16391018052962514</v>
+        <v>0.17839708190504666</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" si="3"/>
-        <v>9.6784071376340597E-2</v>
+        <v>0.10919753677271538</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" si="3"/>
-        <v>4.8498071861101E-2</v>
+        <v>5.744462181838339E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3495,38 +3495,38 @@
         <v>43132</v>
       </c>
       <c r="B18" s="10">
-        <v>3.5902000000000003</v>
+        <v>3.5905999999999998</v>
       </c>
       <c r="C18" s="12">
-        <v>0.34838076666666667</v>
+        <v>0.37312448666666664</v>
       </c>
       <c r="D18" s="6">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" si="0"/>
-        <v>0.20896656488534696</v>
+        <v>0.2130616353178208</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" si="1"/>
-        <v>0.31527869668221353</v>
+        <v>0.31668206512075125</v>
       </c>
       <c r="G18" s="18">
         <f t="shared" si="1"/>
-        <v>0.45704786308759049</v>
+        <v>0.45401666139526142</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="18">
         <f t="shared" si="2"/>
-        <v>0.20265259808992908</v>
+        <v>0.21321040048357065</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="3"/>
-        <v>0.12996707494782533</v>
+        <v>0.13994896509567434</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="3"/>
-        <v>7.2749320793414007E-2</v>
+        <v>8.084735415572486E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3534,38 +3534,38 @@
         <v>43160</v>
       </c>
       <c r="B19" s="10">
-        <v>3.4912000000000001</v>
+        <v>3.4974000000000003</v>
       </c>
       <c r="C19" s="12">
-        <v>0.35654140000000006</v>
+        <v>0.34771735476190474</v>
       </c>
       <c r="D19" s="6">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="E19" s="18">
         <f t="shared" si="0"/>
-        <v>0.19516257042111623</v>
+        <v>0.18829926605021638</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" si="1"/>
-        <v>0.29171114281757804</v>
+        <v>0.28962405461797658</v>
       </c>
       <c r="G19" s="18">
         <f t="shared" si="1"/>
-        <v>0.42221757908498991</v>
+        <v>0.42830035771719255</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="18">
         <f t="shared" si="2"/>
-        <v>0.2447288317282823</v>
+        <v>0.22328425659799456</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="3"/>
-        <v>0.16626154418217209</v>
+        <v>0.14546746664608146</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" si="3"/>
-        <v>0.10032894532244552</v>
+        <v>8.2908499198125596E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3573,38 +3573,38 @@
         <v>43191</v>
       </c>
       <c r="B20" s="10">
-        <v>2.9327999999999999</v>
+        <v>2.9485999999999999</v>
       </c>
       <c r="C20" s="12">
-        <v>0.25818780000000002</v>
+        <v>0.27121099285714279</v>
       </c>
       <c r="D20" s="6">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E20" s="18">
         <f t="shared" si="0"/>
-        <v>4.9776845930202457E-2</v>
+        <v>5.4211649700164281E-2</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" si="1"/>
-        <v>0.10878148418389666</v>
+        <v>0.1153852699611119</v>
       </c>
       <c r="G20" s="18">
         <f t="shared" si="1"/>
-        <v>0.2225246070321007</v>
+        <v>0.23055474483274216</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="18">
         <f t="shared" si="2"/>
-        <v>0.33762753714423954</v>
+        <v>0.33523571391378859</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" si="3"/>
-        <v>0.21497693178343613</v>
+        <v>0.21490260959440666</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" si="3"/>
-        <v>0.11443834694120625</v>
+        <v>0.11575676964135007</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3612,38 +3612,38 @@
         <v>43221</v>
       </c>
       <c r="B21" s="10">
-        <v>2.8723999999999998</v>
+        <v>2.8917999999999999</v>
       </c>
       <c r="C21" s="12">
-        <v>0.24242119999999998</v>
+        <v>0.25729967857142855</v>
       </c>
       <c r="D21" s="6">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" si="0"/>
-        <v>3.8887000593255658E-2</v>
+        <v>4.4870022543934907E-2</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" si="1"/>
-        <v>9.0573572985746961E-2</v>
+        <v>9.9797605714547225E-2</v>
       </c>
       <c r="G21" s="18">
         <f t="shared" si="1"/>
-        <v>0.19664011491417727</v>
+        <v>0.2080294548044414</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="18">
         <f t="shared" si="2"/>
-        <v>0.35764576365773448</v>
+        <v>0.35584525726790528</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" si="3"/>
-        <v>0.22774518984004355</v>
+        <v>0.22965597398821802</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" si="3"/>
-        <v>0.12043555151665075</v>
+        <v>0.12424082024668859</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3651,38 +3651,38 @@
         <v>43252</v>
       </c>
       <c r="B22" s="10">
-        <v>2.8902000000000001</v>
+        <v>2.9068000000000001</v>
       </c>
       <c r="C22" s="12">
-        <v>0.23902836</v>
+        <v>0.2523094107142857</v>
       </c>
       <c r="D22" s="6">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E22" s="18">
         <f t="shared" si="0"/>
-        <v>4.3207059779371858E-2</v>
+        <v>4.8660708964265567E-2</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" si="1"/>
-        <v>9.7503747254978859E-2</v>
+        <v>0.10564175642085219</v>
       </c>
       <c r="G22" s="18">
         <f t="shared" si="1"/>
-        <v>0.20576486497943067</v>
+        <v>0.21547600524763369</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="18">
         <f t="shared" si="2"/>
-        <v>0.35384878417018051</v>
+        <v>0.35279194351044818</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" si="3"/>
-        <v>0.22677630148468708</v>
+        <v>0.2288300558414752</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" si="3"/>
-        <v>0.12135846609641887</v>
+        <v>0.12493980597327736</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3690,38 +3690,38 @@
         <v>43282</v>
       </c>
       <c r="B23" s="10">
-        <v>2.9095999999999997</v>
+        <v>2.9247999999999998</v>
       </c>
       <c r="C23" s="12">
-        <v>0.23651152</v>
+        <v>0.24860294285714288</v>
       </c>
       <c r="D23" s="6">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" si="0"/>
-        <v>4.7968996435839274E-2</v>
+        <v>5.3135948994008121E-2</v>
       </c>
       <c r="F23" s="18">
         <f t="shared" si="1"/>
-        <v>0.10494193233963291</v>
+        <v>0.11242411851410884</v>
       </c>
       <c r="G23" s="18">
         <f t="shared" si="1"/>
-        <v>0.21536463900005187</v>
+        <v>0.22404024517728408</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="18">
         <f t="shared" si="2"/>
-        <v>0.34969943882446508</v>
+        <v>0.34893910287462537</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" si="3"/>
-        <v>0.2254924869091155</v>
+        <v>0.22744466358671023</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" si="3"/>
-        <v>0.12205754795631762</v>
+        <v>0.1253334536121069</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -3729,38 +3729,38 @@
         <v>43313</v>
       </c>
       <c r="B24" s="10">
-        <v>2.9020000000000001</v>
+        <v>2.9217999999999997</v>
       </c>
       <c r="C24" s="12">
-        <v>0.23544884000000002</v>
+        <v>0.24722057499999997</v>
       </c>
       <c r="D24" s="6">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" si="0"/>
-        <v>5.025401561414148E-2</v>
+        <v>5.6142528903433353E-2</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" si="1"/>
-        <v>0.10734136777227808</v>
+        <v>0.11587198828179678</v>
       </c>
       <c r="G24" s="18">
         <f t="shared" si="1"/>
-        <v>0.21608301618171352</v>
+        <v>0.22622963163043983</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="18">
         <f t="shared" si="2"/>
-        <v>0.35875946197131925</v>
+        <v>0.356111163350882</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" si="3"/>
-        <v>0.23544745553435831</v>
+        <v>0.23587248024892538</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" si="3"/>
-        <v>0.13079780545310471</v>
+        <v>0.13311853670324902</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3768,38 +3768,38 @@
         <v>43344</v>
       </c>
       <c r="B25" s="10">
-        <v>2.8795999999999999</v>
+        <v>2.9005999999999998</v>
       </c>
       <c r="C25" s="12">
-        <v>0.23562632</v>
+        <v>0.24714085714285713</v>
       </c>
       <c r="D25" s="6">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" si="0"/>
-        <v>5.1637398356130931E-2</v>
+        <v>5.7740706804078244E-2</v>
       </c>
       <c r="F25" s="18">
         <f t="shared" si="1"/>
-        <v>0.10763839025827791</v>
+        <v>0.11636346982749761</v>
       </c>
       <c r="G25" s="18">
         <f t="shared" si="1"/>
-        <v>0.21271224267724839</v>
+        <v>0.22308837910858434</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="18">
         <f t="shared" si="2"/>
-        <v>0.3755998798927026</v>
+        <v>0.3723489873914213</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" si="3"/>
-        <v>0.25273105464519929</v>
+        <v>0.25265683301064246</v>
       </c>
       <c r="K25" s="18">
         <f t="shared" si="3"/>
-        <v>0.14550347915493034</v>
+        <v>0.1475925042766898</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -3807,38 +3807,38 @@
         <v>43374</v>
       </c>
       <c r="B26" s="10">
-        <v>2.8972000000000002</v>
+        <v>2.9156000000000004</v>
       </c>
       <c r="C26" s="12">
-        <v>0.23599132000000003</v>
+        <v>0.24672235952380955</v>
       </c>
       <c r="D26" s="6">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="E26" s="18">
         <f t="shared" si="0"/>
-        <v>5.7269265918824544E-2</v>
+        <v>6.2943482068183787E-2</v>
       </c>
       <c r="F26" s="18">
         <f t="shared" si="1"/>
-        <v>0.11558213268673292</v>
+        <v>0.12341793801214425</v>
       </c>
       <c r="G26" s="18">
         <f t="shared" si="1"/>
-        <v>0.22192643591708297</v>
+        <v>0.23092199700983021</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="18">
         <f t="shared" si="2"/>
-        <v>0.37372721292080768</v>
+        <v>0.37138620143975931</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" si="3"/>
-        <v>0.25379574077454425</v>
+        <v>0.25419171657389839</v>
       </c>
       <c r="K26" s="18">
         <f t="shared" si="3"/>
-        <v>0.14839417927046306</v>
+        <v>0.15061193899266234</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -3846,38 +3846,38 @@
         <v>43405</v>
       </c>
       <c r="B27" s="10">
-        <v>2.9421999999999997</v>
+        <v>2.9585999999999997</v>
       </c>
       <c r="C27" s="12">
-        <v>0.23264313999999997</v>
+        <v>0.24530286190476192</v>
       </c>
       <c r="D27" s="6">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" si="0"/>
-        <v>6.4978662096771167E-2</v>
+        <v>7.2182722161562796E-2</v>
       </c>
       <c r="F27" s="18">
         <f t="shared" si="1"/>
-        <v>0.12758023671443677</v>
+        <v>0.13673499255127855</v>
       </c>
       <c r="G27" s="18">
         <f t="shared" si="1"/>
-        <v>0.23847529193981093</v>
+        <v>0.24770320375003607</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="18">
         <f t="shared" si="2"/>
-        <v>0.35794634783370771</v>
+        <v>0.35946945540400121</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" si="3"/>
-        <v>0.24176873068331139</v>
+        <v>0.2463438241759226</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" si="3"/>
-        <v>0.14074229053084464</v>
+        <v>0.14670745612089786</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -3885,38 +3885,38 @@
         <v>43435</v>
       </c>
       <c r="B28" s="11">
-        <v>3.0684</v>
+        <v>3.0924</v>
       </c>
       <c r="C28" s="13">
-        <v>0.22919486666666664</v>
+        <v>0.23930364761904763</v>
       </c>
       <c r="D28" s="14">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" si="0"/>
-        <v>8.502874358162385E-2</v>
+        <v>9.2736119049019725E-2</v>
       </c>
       <c r="F28" s="19">
         <f t="shared" si="1"/>
-        <v>0.15901975473159405</v>
+        <v>0.16877889181689429</v>
       </c>
       <c r="G28" s="19">
         <f t="shared" si="1"/>
-        <v>0.28263626531055031</v>
+        <v>0.29284373536756236</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="19">
         <f t="shared" si="2"/>
-        <v>0.31135123403119735</v>
+        <v>0.30929013626346269</v>
       </c>
       <c r="J28" s="19">
         <f t="shared" si="3"/>
-        <v>0.20435870871581174</v>
+        <v>0.20484241880056919</v>
       </c>
       <c r="K28" s="19">
         <f t="shared" si="3"/>
-        <v>0.11513237151986122</v>
+        <v>0.1171137712885022</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
